--- a/Dice HW.xlsx
+++ b/Dice HW.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/281157cc9034eee5/City College of NY/ECO B2000 Statistics and Introduction to Econometrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/281157cc9034eee5/City College of NY/ECO B2000 Statistics and Introduction to Econometrics/ecob2000_lecture1 R Studio/HW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EB6D81D-23F4-3145-8A93-C45413E02C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{3EB6D81D-23F4-3145-8A93-C45413E02C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1ACCF62-9D5E-1545-9410-7C2DD2B1EB6E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{EF510B2D-C240-F945-A987-BA071E48E617}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,19 +36,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Number</t>
   </si>
   <si>
     <t>Roll/Toss #</t>
+  </si>
+  <si>
+    <t>Number Landed</t>
+  </si>
+  <si>
+    <t>Number of Times</t>
+  </si>
+  <si>
+    <t>6 Roled</t>
+  </si>
+  <si>
+    <t>4 Roled</t>
+  </si>
+  <si>
+    <t>1 Roled</t>
+  </si>
+  <si>
+    <t>5 Roled</t>
+  </si>
+  <si>
+    <t>2 Roled</t>
+  </si>
+  <si>
+    <t>3 Roled</t>
+  </si>
+  <si>
+    <t>Mode (Most Rolls)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Total Rolls</t>
+  </si>
+  <si>
+    <t>A few toses were thrown aggressvely.</t>
+  </si>
+  <si>
+    <t>Some toses were thrown normally.</t>
+  </si>
+  <si>
+    <t>Hard to see what's fair to land on one side equally.</t>
+  </si>
+  <si>
+    <t>Randomlly tought 1 out of 6 chance could be unfair it could land any times on one side of the dice the most.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +110,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,11 +145,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,71 +472,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2066C378-5EAE-1040-AE42-117B709B8A98}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(B2:B21,B2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF(B2:B21,B3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF(B2:B21,B4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIF(B2:B21,B8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF(B2:B21,B9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIF(B2:B21,B15)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -477,15 +596,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E2:E7)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -493,23 +619,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f>MODE(D2:D7,E2:E7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(E2:E7)</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -517,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -525,15 +665,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -541,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -549,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -557,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -565,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -573,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -581,7 +721,92 @@
         <v>4</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A28:H28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>